--- a/biology/Zoologie/Echinolampadoida/Echinolampadoida.xlsx
+++ b/biology/Zoologie/Echinolampadoida/Echinolampadoida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinolampadoida sont un ordre d'oursins irréguliers.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinolampadoida sont des oursins irréguliers : leur test (coquille) arrondi est de forme subhémisphérique plus ou moins bombée, la bouche (« péristome ») est située au centre de la face orale (inférieure), et l'anus (« périprocte ») plus ou moins marginal sur cette même face (formant un axe antéro-postérieur et donc une symétrie biradiale), alors que les quatre orifices génitaux et le madréporite sont situés à l'apex, au sommet de la face aborale.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (2 décembre 2013)[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (2 décembre 2013) : 
 famille Echinolampadidae Gray, 1851a
 genre † Calilampas Squires &amp; Demetrion, 1996
 genre Conolampas A. Agassiz, 1883
